--- a/src/Tests/Tests.ExportToExcel_state=QLD.verified.xlsx
+++ b/src/Tests/Tests.ExportToExcel_state=QLD.verified.xlsx
@@ -9,6 +9,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -34,9 +37,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -57,7 +61,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="2" t="n">
         <v>46023</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -67,7 +71,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="2" t="n">
         <v>46048</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -77,7 +81,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="2" t="n">
         <v>46115</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -87,7 +91,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="2" t="n">
         <v>46116</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -97,7 +101,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="2" t="n">
         <v>46117</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -107,7 +111,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="2" t="n">
         <v>46118</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -117,7 +121,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="2" t="n">
         <v>46137</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -127,7 +131,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="2" t="n">
         <v>46146</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -137,7 +141,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="2" t="n">
         <v>46300</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -147,7 +151,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="2" t="n">
         <v>46380</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -157,7 +161,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="2" t="n">
         <v>46381</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -167,7 +171,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" s="2" t="n">
         <v>46382</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -177,7 +181,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
+      <c r="A14" s="2" t="n">
         <v>46384</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -187,7 +191,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" s="2" t="n">
         <v>46388</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -197,7 +201,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="2" t="n">
         <v>46413</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -207,7 +211,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="2" t="n">
         <v>46472</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -217,7 +221,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" s="2" t="n">
         <v>46473</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -227,7 +231,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" s="2" t="n">
         <v>46474</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -237,7 +241,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" s="2" t="n">
         <v>46475</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -247,7 +251,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
+      <c r="A21" s="2" t="n">
         <v>46502</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -257,7 +261,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" s="2" t="n">
         <v>46503</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -267,7 +271,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
+      <c r="A23" s="2" t="n">
         <v>46510</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -277,7 +281,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" s="2" t="n">
         <v>46664</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -287,7 +291,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
+      <c r="A25" s="2" t="n">
         <v>46745</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -297,7 +301,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
+      <c r="A26" s="2" t="n">
         <v>46746</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -307,7 +311,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
+      <c r="A27" s="2" t="n">
         <v>46747</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -317,7 +321,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
+      <c r="A28" s="2" t="n">
         <v>46748</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -327,7 +331,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
+      <c r="A29" s="2" t="n">
         <v>46749</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -337,7 +341,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
+      <c r="A30" s="2" t="n">
         <v>46753</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -347,7 +351,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
+      <c r="A31" s="2" t="n">
         <v>46778</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -357,7 +361,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
+      <c r="A32" s="2" t="n">
         <v>46857</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -367,7 +371,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
+      <c r="A33" s="2" t="n">
         <v>46858</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -377,7 +381,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
+      <c r="A34" s="2" t="n">
         <v>46859</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -387,7 +391,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
+      <c r="A35" s="2" t="n">
         <v>46860</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -397,7 +401,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
+      <c r="A36" s="2" t="n">
         <v>46868</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -407,7 +411,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
+      <c r="A37" s="2" t="n">
         <v>46874</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -417,7 +421,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
+      <c r="A38" s="2" t="n">
         <v>47028</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -427,7 +431,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
+      <c r="A39" s="2" t="n">
         <v>47111</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -437,7 +441,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
+      <c r="A40" s="2" t="n">
         <v>47112</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -447,7 +451,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
+      <c r="A41" s="2" t="n">
         <v>47113</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -457,7 +461,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
+      <c r="A42" s="2" t="n">
         <v>47119</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -467,7 +471,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>47144</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -477,7 +481,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>47207</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -487,7 +491,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>47208</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -497,7 +501,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>47209</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -507,7 +511,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
+      <c r="A47" s="2" t="n">
         <v>47210</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -517,7 +521,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
+      <c r="A48" s="2" t="n">
         <v>47233</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -527,7 +531,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
+      <c r="A49" s="2" t="n">
         <v>47245</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -537,7 +541,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
+      <c r="A50" s="2" t="n">
         <v>47392</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -547,7 +551,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
+      <c r="A51" s="2" t="n">
         <v>47476</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -557,7 +561,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
+      <c r="A52" s="2" t="n">
         <v>47477</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -567,7 +571,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
+      <c r="A53" s="2" t="n">
         <v>47478</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -577,7 +581,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
+      <c r="A54" s="2" t="n">
         <v>47484</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -587,7 +591,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
+      <c r="A55" s="2" t="n">
         <v>47511</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -597,7 +601,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
+      <c r="A56" s="2" t="n">
         <v>47592</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -607,7 +611,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
+      <c r="A57" s="2" t="n">
         <v>47593</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -617,7 +621,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
+      <c r="A58" s="2" t="n">
         <v>47594</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -627,7 +631,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
+      <c r="A59" s="2" t="n">
         <v>47595</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -637,7 +641,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
+      <c r="A60" s="2" t="n">
         <v>47598</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -647,7 +651,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
+      <c r="A61" s="2" t="n">
         <v>47609</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -657,7 +661,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
+      <c r="A62" s="2" t="n">
         <v>47763</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -667,7 +671,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
+      <c r="A63" s="2" t="n">
         <v>47841</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -677,7 +681,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
+      <c r="A64" s="2" t="n">
         <v>47842</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -687,7 +691,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
+      <c r="A65" s="2" t="n">
         <v>47843</v>
       </c>
       <c r="B65" t="inlineStr">

--- a/src/Tests/Tests.ExportToExcel_state=QLD.verified.xlsx
+++ b/src/Tests/Tests.ExportToExcel_state=QLD.verified.xlsx
@@ -47,6 +47,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="70" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/src/Tests/Tests.ExportToExcel_state=QLD.verified.xlsx
+++ b/src/Tests/Tests.ExportToExcel_state=QLD.verified.xlsx
@@ -65,8 +65,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>46023</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-01-01</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -75,8 +77,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>46048</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-01-26</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -85,8 +89,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>46115</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-04-03</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -95,8 +101,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>46116</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-04-04</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -105,8 +113,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>46117</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-04-05</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -115,8 +125,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>46118</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-04-06</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -125,8 +137,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>46137</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-04-25</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -135,8 +149,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>46146</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-05-04</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -145,8 +161,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>46300</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-10-05</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -155,8 +173,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>46380</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-12-24</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -165,8 +185,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>46381</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-12-25</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -175,8 +197,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>46382</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-12-26</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -185,8 +209,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>46384</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-12-28</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -195,8 +221,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>46388</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2027-01-01</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -205,8 +233,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>46413</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2027-01-26</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -215,8 +245,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>46472</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2027-03-26</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -225,8 +257,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>46473</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2027-03-27</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -235,8 +269,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>46474</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2027-03-28</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -245,8 +281,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>46475</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2027-03-29</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -255,8 +293,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>46502</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2027-04-25</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -265,8 +305,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>46503</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2027-04-26</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -275,8 +317,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>46510</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2027-05-03</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -285,8 +329,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>46664</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2027-10-04</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -295,8 +341,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>46745</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2027-12-24</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -305,8 +353,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>46746</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2027-12-25</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -315,8 +365,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>46747</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2027-12-26</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -325,8 +377,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>46748</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2027-12-27</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -335,8 +389,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>46749</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2027-12-28</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -345,8 +401,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>46753</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2028-01-01</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -355,8 +413,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>46778</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2028-01-26</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -365,8 +425,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>46857</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2028-04-14</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -375,8 +437,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>46858</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2028-04-15</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -385,8 +449,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>46859</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2028-04-16</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -395,8 +461,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>46860</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2028-04-17</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -405,8 +473,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>46868</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2028-04-25</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -415,8 +485,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>46874</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2028-05-01</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -425,8 +497,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>47028</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2028-10-02</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -435,8 +509,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>47111</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2028-12-24</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -445,8 +521,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>47112</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2028-12-25</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -455,8 +533,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>47113</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2028-12-26</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -465,8 +545,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>47119</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2029-01-01</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -475,8 +557,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>47144</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2029-01-26</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -485,8 +569,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>47207</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2029-03-30</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -495,8 +581,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>47208</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2029-03-31</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -505,8 +593,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>47209</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2029-04-01</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -515,8 +605,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>47210</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2029-04-02</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -525,8 +617,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>47233</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2029-04-25</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -535,8 +629,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47245</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2029-05-07</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -545,8 +641,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>47392</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2029-10-01</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -555,8 +653,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>47476</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2029-12-24</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -565,8 +665,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>47477</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2029-12-25</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -575,8 +677,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>47478</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2029-12-26</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -585,8 +689,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>47484</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2030-01-01</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -595,8 +701,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>47511</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2030-01-28</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -605,8 +713,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>47592</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2030-04-19</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -615,8 +725,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>47593</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2030-04-20</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -625,8 +737,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>47594</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2030-04-21</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -635,8 +749,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>47595</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2030-04-22</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -645,8 +761,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>47598</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2030-04-25</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -655,8 +773,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>47609</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2030-05-06</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -665,8 +785,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>47763</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2030-10-07</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -675,8 +797,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>47841</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2030-12-24</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -685,8 +809,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>47842</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2030-12-25</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -695,8 +821,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>47843</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2030-12-26</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
